--- a/results/yq_test/two_local_random_cz/Rb2Re4/cz_2q_twolocalrandom_indep_qiskit_7.qasm_rb2_archsize3_mini_dis.xlsx
+++ b/results/yq_test/two_local_random_cz/Rb2Re4/cz_2q_twolocalrandom_indep_qiskit_7.qasm_rb2_archsize3_mini_dis.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N102"/>
+  <dimension ref="A1:N103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01156520843505859</v>
+        <v>0.0004689693450927734</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.001082181930541992</v>
+        <v>0.0005118846893310547</v>
       </c>
     </row>
     <row r="7">
@@ -497,13 +497,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.001189708709716797</v>
+        <v>0.01373600959777832</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[(0, 1), (1, 1), (1, 0), (1, 2), (2, 1), (0, 0), (0, 2)]</t>
+          <t>[[0, 1], [1, 1], [1, 0], [1, 2], [2, 1], [0, 0], [0, 2]]</t>
         </is>
       </c>
     </row>
@@ -650,7 +650,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>[(1, 0), (2, 1), (1, 2), (0, 1), (1, 1), (0, 0), (0, 2)]</t>
+          <t>[[1, 0], [2, 1], [1, 2], [0, 1], [1, 1], [0, 0], [0, 2]]</t>
         </is>
       </c>
     </row>
@@ -809,7 +809,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>[(2, 1), (1, 2), (0, 1), (1, 1), (0, 0), (0, 2), (1, 0)]</t>
+          <t>[[2, 1], [1, 2], [0, 1], [1, 1], [0, 0], [0, 2], [1, 0]]</t>
         </is>
       </c>
     </row>
@@ -956,7 +956,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>[(2, 1), (0, 0), (1, 2), (0, 2), (0, 1), (1, 1), (1, 0)]</t>
+          <t>[[2, 1], [0, 0], [1, 2], [0, 2], [0, 1], [1, 1], [1, 0]]</t>
         </is>
       </c>
     </row>
@@ -1094,7 +1094,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>[(2, 1), (1, 0), (1, 2), (1, 1), (0, 0), (0, 1), (0, 2)]</t>
+          <t>[[2, 1], [1, 0], [1, 2], [1, 1], [0, 0], [0, 1], [0, 2]]</t>
         </is>
       </c>
     </row>
@@ -1149,110 +1149,120 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Movement times</t>
+          <t>move_fidelity</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>20</v>
+        <v>0.9988269813999795</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>parallel times</t>
+          <t>Movement times</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>63</v>
+        <v>20</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>partitions</t>
+          <t>parallel times</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>5</v>
+        <v>63</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>total time:</t>
+          <t>partitions</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.02109026908874512</v>
+        <v>5</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
+          <t>total time:</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>0.02182388305664062</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
           <t>T_cz</t>
         </is>
       </c>
-      <c r="B102" t="inlineStr">
+      <c r="B103" t="inlineStr">
         <is>
           <t>0.2</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
+      <c r="C103" t="inlineStr">
         <is>
           <t>T_eff</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
+      <c r="D103" t="inlineStr">
         <is>
           <t>1500000.0</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
+      <c r="E103" t="inlineStr">
         <is>
           <t>T_trans</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
+      <c r="F103" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G102" t="inlineStr">
+      <c r="G103" t="inlineStr">
         <is>
           <t>AOD_width</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
+      <c r="H103" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="I102" t="inlineStr">
+      <c r="I103" t="inlineStr">
         <is>
           <t>AOD_height</t>
         </is>
       </c>
-      <c r="J102" t="inlineStr">
+      <c r="J103" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="K102" t="inlineStr">
+      <c r="K103" t="inlineStr">
         <is>
           <t>Move_speed</t>
         </is>
       </c>
-      <c r="L102" t="inlineStr">
+      <c r="L103" t="inlineStr">
         <is>
           <t>0.55</t>
         </is>
       </c>
-      <c r="M102" t="inlineStr">
+      <c r="M103" t="inlineStr">
         <is>
           <t>F_cz</t>
         </is>
       </c>
-      <c r="N102" t="inlineStr">
+      <c r="N103" t="inlineStr">
         <is>
           <t>0.995</t>
         </is>
